--- a/xlsx4j/src/main/java/org/example/Cats.xlsx
+++ b/xlsx4j/src/main/java/org/example/Cats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thitb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thitb\Desktop\Common\xlsx4j\src\main\java\org\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5E5AB9-9ABF-4EC5-9AAF-3633B71D76EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBCB84-B502-4402-BF23-5115EC9E92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7321377E-4CC7-4460-A710-26197A33F691}"/>
   </bookViews>
@@ -20,28 +20,34 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{0421C4BE-709C-4B45-8B4B-4079A9435955}" name="document" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\thitb\Desktop\Common\export2docx\src\main\java\org\example\document.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Meo</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Tên</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>Tuổi</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -94,6 +100,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="documentObjectXML">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="email" form="unqualified"/>
+            <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="address" form="unqualified"/>
+            <xsd:element minOccurs="0" nillable="true" name="meo" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="catName" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="catAge" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="documentObjectXML_Map" RootElement="documentObjectXML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/tableSingleCells1.xml><?xml version="1.0" encoding="utf-8"?>
+<singleXmlCells xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="xr xr3 xr6">
+  <singleXmlCell id="4" xr6:uid="{878F51CE-8DBB-474F-AFF8-A9D25C8C04D5}" r="A3" connectionId="1">
+    <xmlCellPr id="1" xr6:uid="{ABA0D333-35D7-4E93-9FE1-B80D2A609995}" uniqueName="catName">
+      <xmlPr mapId="1" xpath="/documentObjectXML/meo/catName" xmlDataType="string"/>
+    </xmlCellPr>
+  </singleXmlCell>
+</singleXmlCells>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,24 +438,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CAD7B5-E9F1-4178-AB29-9243DAB9310D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/xlsx4j/src/main/java/org/example/Cats.xlsx
+++ b/xlsx4j/src/main/java/org/example/Cats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thitb\Desktop\Common\xlsx4j\src\main\java\org\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDBCB84-B502-4402-BF23-5115EC9E92AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747CE6FB-18E4-44DD-893B-054B68C09510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7321377E-4CC7-4460-A710-26197A33F691}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Meo</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>Giống</t>
   </si>
 </sst>
 </file>
@@ -438,35 +441,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CAD7B5-E9F1-4178-AB29-9243DAB9310D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
